--- a/medicine/Psychotrope/Puyméras_(côtes-du-rhône_villages)/Puyméras_(côtes-du-rhône_villages).xlsx
+++ b/medicine/Psychotrope/Puyméras_(côtes-du-rhône_villages)/Puyméras_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le puyméras[2], ou côtes-du-rhône villages Puyméras, est un vin rouge produit autour de Puyméras, dans les départements de Vaucluse et de la Drôme.
+Le puyméras, ou côtes-du-rhône villages Puyméras, est un vin rouge produit autour de Puyméras, dans les départements de Vaucluse et de la Drôme.
 Il s'agit d'une des vingt et une dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De l'Antiquité au Moyen Âge
-Ce territoire où passent l'Ouvèze et le Lauzon a été occupé par les chasseurs du magdalénien. La colonisation romaine a été aussi effective (tombes à incinération, stèles, autel anépigraphique) mais le vestige le plus important reste une statue dédiée à Jupiter Delpusorius découverte à Saint-Romain-en-Viennois et un autel à Jupiter à Puyméras. 
+          <t>De l'Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce territoire où passent l'Ouvèze et le Lauzon a été occupé par les chasseurs du magdalénien. La colonisation romaine a été aussi effective (tombes à incinération, stèles, autel anépigraphique) mais le vestige le plus important reste une statue dédiée à Jupiter Delpusorius découverte à Saint-Romain-en-Viennois et un autel à Jupiter à Puyméras. 
 La période médiévale vit la culture de la vigne développée par les moines venus de l'Isle-Barbe (Lyon) et de l'abbaye de Cluny.
-Période moderne
-Les guerres de religion furent particulièrement violentes entre les seigneurs protestants des Baronnies et les Capitaines pontificaux venus du Comtat Venaissin.
-La période révolutionnaire aurait laissé peu de traces ans les provocations du marquis de Bézaudun qui excita contre lui la colère populaire. En 1794, Les élus de Puyméras changèrent le nom de leur commune en « Puy-la-Montagne ».
-Période contemporaine
-Zone de polyculture traditionnellement arboricole, les oliviers et les fruitiers subirent le gel de 1956. Seule la vigne résista. Ce vignoble a eu ses vins classé en côtes-du-rhône villages en 1979. Le  décret du 25 août 2005 l'a fait accéder en côtes-du-rhône villages avec nom géographique.
-Un « Salon des jeunes vignerons d'Europe » est programmé à Mérindol-les-Oliviers du 5 au 7 août 2011, de 18h à 23h, regroupant des vignerons de 25 à 40 ans de France, Espagne, Suisse, Italie, Belgique et Portugal[3].
 </t>
         </is>
       </c>
@@ -534,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le nom de cette appellation Puyméras est issu du primitif Podio Almerassio, la montagne d'Almeras.
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les guerres de religion furent particulièrement violentes entre les seigneurs protestants des Baronnies et les Capitaines pontificaux venus du Comtat Venaissin.
+La période révolutionnaire aurait laissé peu de traces ans les provocations du marquis de Bézaudun qui excita contre lui la colère populaire. En 1794, Les élus de Puyméras changèrent le nom de leur commune en « Puy-la-Montagne ».
 </t>
         </is>
       </c>
@@ -565,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,107 +598,569 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zone de polyculture traditionnellement arboricole, les oliviers et les fruitiers subirent le gel de 1956. Seule la vigne résista. Ce vignoble a eu ses vins classé en côtes-du-rhône villages en 1979. Le  décret du 25 août 2005 l'a fait accéder en côtes-du-rhône villages avec nom géographique.
+Un « Salon des jeunes vignerons d'Europe » est programmé à Mérindol-les-Oliviers du 5 au 7 août 2011, de 18h à 23h, regroupant des vignerons de 25 à 40 ans de France, Espagne, Suisse, Italie, Belgique et Portugal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette appellation Puyméras est issu du primitif Podio Almerassio, la montagne d'Almeras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble se trouve à cheval sur deux départements, la Drôme et le Vaucluse. 
-Orographie
-Ce terroir composé de cinq communes est très vallonné avec une altitude variant entre 220 à 600 mètres.
-Géologie
-Le terroir viticole est composé de terrasses caillouteuses où se mêlent galets roulés et des lauzes anguleux. L'érosion quaternaire a déposé une terre fine, rouge sablo-caillouteuse.
-Climatologie
-Ce terroir viticole est situé dans la zone d’influence du climat méditerranéen. Les étés sont chauds et secs, liés à la remontée en altitude des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare. Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir composé de cinq communes est très vallonné avec une altitude variant entre 220 à 600 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir viticole est composé de terrasses caillouteuses où se mêlent galets roulés et des lauzes anguleux. L'érosion quaternaire a déposé une terre fine, rouge sablo-caillouteuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole est situé dans la zone d’influence du climat méditerranéen. Les étés sont chauds et secs, liés à la remontée en altitude des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare. Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble
 La saisonnalité des pluies est très marquée
 Les températures sont très chaudes pendant l'été.
-Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare[4].
+Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare.
 Source : Données climatologiques de Vaison-la-Romaine 2000-2007
 Selon Météo-France, le nombre par an de jours de pluies supérieures à 2,5 litres par mètre carré est de 45 et la quantité d'eau, pluie et neige confondues, est de 660 litres par mètre carré. Les températures moyennes oscillent entre 0 et 30° selon la saison. Le record de température depuis l'existence de la station de l'INRA est de 40,5 °C lors de la canicule européenne de 2003 le 5 août (et 39,8 °C le 18 août 2009) et −12,8 °C le 5 janvier 1985. Les relevés météorologiques ont lieu à l'Agroparc d'Avignon.
 Le mistral
-Le vent principal est le mistral, dont la vitesse peut aller au-delà des 110 km/h. Il souffle entre 120 et 160 jours par an, avec une vitesse de 90 km/h par rafale en moyenne[5]. Le tableau suivant indique les différentes vitesse du mistral enregistrées par les stations d'Orange et Carpentras-Serres dans le sud de la vallée du Rhône et à sa fréquence au cours de l'année 2006. La normale correspond à la moyenne des 53 dernières années pour les relevés météorologiques d'Orange et à celle des 42 dernières pour Carpentras[6].
+Le vent principal est le mistral, dont la vitesse peut aller au-delà des 110 km/h. Il souffle entre 120 et 160 jours par an, avec une vitesse de 90 km/h par rafale en moyenne. Le tableau suivant indique les différentes vitesse du mistral enregistrées par les stations d'Orange et Carpentras-Serres dans le sud de la vallée du Rhône et à sa fréquence au cours de l'année 2006. La normale correspond à la moyenne des 53 dernières années pour les relevés météorologiques d'Orange et à celle des 42 dernières pour Carpentras.
 Légende : « = » : idem à la normale ; « + » : supérieur à la normale ; « - » : inférieur à la normale.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le vignoble au pied de Faucon.
 			Au pied de la colline de Chatelard, vignoble à Mollans-sur-Ouvèze.
 			Les vignes à l'entrée de Puyméras.
-Présentation
-Le vignoble s'étend sur les communes de Mérindol-les-Oliviers, Mollans-sur-Ouvèze, Faucon, Saint-Romain-en-Viennois et Puyméras.
-Encépagement
-Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
-Méthodes culturales et réglementaires
-Les vignes sont conduites en taille courte gobelet ou cordon), chaque cep devant comporter au maximum six coursons à deux yeux francs. 
-Terroir et vins
-Des terrasses caillouteuses, mêlées de sable et d’argile rouge composent ce terroir. Les rouges ont une robe profonde à la couleur chatoyante. Ces vins équilibrés et charpentés, sont caractérisés par un nez qui évolue d’un bouquet juvénile de fruits où domine la marasque (cerise noire) vers des nuances de menthe sauvage, de sous-bois et de venaison en vin de garde.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de Mérindol-les-Oliviers, Mollans-sur-Ouvèze, Faucon, Saint-Romain-en-Viennois et Puyméras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont conduites en taille courte gobelet ou cordon), chaque cep devant comporter au maximum six coursons à deux yeux francs. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des terrasses caillouteuses, mêlées de sable et d’argile rouge composent ce terroir. Les rouges ont une robe profonde à la couleur chatoyante. Ces vins équilibrés et charpentés, sont caractérisés par un nez qui évolue d’un bouquet juvénile de fruits où domine la marasque (cerise noire) vers des nuances de menthe sauvage, de sous-bois et de venaison en vin de garde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-La production viti-vinicole est assurée par une cave coopérative à Puyméras et plusieurs domaines indépendants.
-Type de vins et gastronomie
-Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillé sur du gibier et de la venaison et il s'accorde parfaitement avec les daubes, les civets de chevreuil, de lièvre ou de sanglier et les caillettes.
-Commercialisation
-La commercialisation, sur le marché intérieur, se fait à partir des CHR, cavistes, grande distribution, salons pour les particuliers et les professionnels. À l'exportation, les plus importants marchés se trouvent en Europe.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production viti-vinicole est assurée par une cave coopérative à Puyméras et plusieurs domaines indépendants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillé sur du gibier et de la venaison et il s'accorde parfaitement avec les daubes, les civets de chevreuil, de lièvre ou de sanglier et les caillettes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commercialisation, sur le marché intérieur, se fait à partir des CHR, cavistes, grande distribution, salons pour les particuliers et les professionnels. À l'exportation, les plus importants marchés se trouvent en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Dans le Vaucluse
 Vaison-la-Romaine
@@ -702,31 +1182,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Puyméras_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puym%C3%A9ras_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>La place du Puyméras parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
